--- a/Diagrama de Gantt - Juego.xlsx
+++ b/Diagrama de Gantt - Juego.xlsx
@@ -1100,7 +1100,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1461,6 +1461,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1557,11 +1561,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -6925,11 +6929,11 @@
   </sheetPr>
   <dimension ref="A1:CO111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CB30" activeCellId="0" sqref="CB30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -6940,7 +6944,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="8" style="0" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="46" min="25" style="0" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="0" width="3.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="51" style="0" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="3.43"/>
@@ -9771,17 +9775,17 @@
       <c r="C24" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="74" t="n">
+      <c r="D24" s="90" t="n">
         <v>43983</v>
       </c>
-      <c r="E24" s="74" t="n">
+      <c r="E24" s="90" t="n">
         <v>43983</v>
       </c>
       <c r="F24" s="47" t="n">
         <f aca="false">DAYS360(D24,E24)+1</f>
         <v>1</v>
       </c>
-      <c r="G24" s="90" t="n">
+      <c r="G24" s="91" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="61"/>
@@ -9849,7 +9853,7 @@
       <c r="BR24" s="63"/>
       <c r="BS24" s="63"/>
       <c r="BT24" s="63"/>
-      <c r="BU24" s="91" t="s">
+      <c r="BU24" s="92" t="s">
         <v>68</v>
       </c>
       <c r="BV24" s="51"/>
@@ -9873,7 +9877,7 @@
       <c r="CN24" s="64"/>
       <c r="CO24" s="76"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="25" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="44" t="s">
         <v>69</v>
       </c>
@@ -9883,10 +9887,10 @@
       <c r="C25" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="46" t="n">
+      <c r="D25" s="86" t="n">
         <v>43983</v>
       </c>
-      <c r="E25" s="46" t="n">
+      <c r="E25" s="86" t="n">
         <v>43985</v>
       </c>
       <c r="F25" s="47" t="n">
@@ -9993,10 +9997,10 @@
       <c r="C26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="46" t="n">
+      <c r="D26" s="86" t="n">
         <v>43983</v>
       </c>
-      <c r="E26" s="46" t="n">
+      <c r="E26" s="86" t="n">
         <v>43985</v>
       </c>
       <c r="F26" s="47" t="n">
@@ -10212,7 +10216,7 @@
         <f aca="false">DAYS360(D28,E28)+1</f>
         <v>7</v>
       </c>
-      <c r="G28" s="92" t="n">
+      <c r="G28" s="93" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="66"/>
@@ -10322,7 +10326,7 @@
         <f aca="false">DAYS360(D29,E29)+1</f>
         <v>5</v>
       </c>
-      <c r="G29" s="92" t="n">
+      <c r="G29" s="93" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="61"/>
@@ -10432,7 +10436,7 @@
         <f aca="false">DAYS360(D30,E30)+1</f>
         <v>3</v>
       </c>
-      <c r="G30" s="92" t="n">
+      <c r="G30" s="93" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="61"/>
@@ -10621,7 +10625,7 @@
       <c r="CN31" s="40"/>
       <c r="CO31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="32" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="44" t="n">
         <v>43103</v>
       </c>
@@ -10641,8 +10645,8 @@
         <f aca="false">DAYS360(D32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="92" t="n">
-        <v>0</v>
+      <c r="G32" s="93" t="n">
+        <v>1</v>
       </c>
       <c r="H32" s="66"/>
       <c r="I32" s="49"/>
@@ -10714,11 +10718,11 @@
       <c r="BW32" s="50"/>
       <c r="BX32" s="50"/>
       <c r="BY32" s="50"/>
-      <c r="BZ32" s="48"/>
-      <c r="CA32" s="48"/>
-      <c r="CB32" s="48"/>
-      <c r="CC32" s="48"/>
-      <c r="CD32" s="48"/>
+      <c r="BZ32" s="85"/>
+      <c r="CA32" s="85"/>
+      <c r="CB32" s="85"/>
+      <c r="CC32" s="85"/>
+      <c r="CD32" s="85"/>
       <c r="CE32" s="56"/>
       <c r="CF32" s="51"/>
       <c r="CG32" s="51"/>
@@ -10731,7 +10735,7 @@
       <c r="CN32" s="64"/>
       <c r="CO32" s="59"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="33" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="44" t="n">
         <v>43134</v>
       </c>
@@ -10751,8 +10755,8 @@
         <f aca="false">DAYS360(D33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="92" t="n">
-        <v>0</v>
+      <c r="G33" s="93" t="n">
+        <v>1</v>
       </c>
       <c r="H33" s="61"/>
       <c r="I33" s="65"/>
@@ -10824,11 +10828,11 @@
       <c r="BW33" s="51"/>
       <c r="BX33" s="51"/>
       <c r="BY33" s="51"/>
-      <c r="BZ33" s="48"/>
-      <c r="CA33" s="48"/>
-      <c r="CB33" s="48"/>
-      <c r="CC33" s="48"/>
-      <c r="CD33" s="48"/>
+      <c r="BZ33" s="85"/>
+      <c r="CA33" s="85"/>
+      <c r="CB33" s="85"/>
+      <c r="CC33" s="85"/>
+      <c r="CD33" s="85"/>
       <c r="CE33" s="56"/>
       <c r="CF33" s="51"/>
       <c r="CG33" s="51"/>
@@ -10851,18 +10855,18 @@
       <c r="C34" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="46" t="n">
+      <c r="D34" s="86" t="n">
         <v>43990</v>
       </c>
-      <c r="E34" s="46" t="n">
-        <v>43994</v>
+      <c r="E34" s="86" t="n">
+        <v>43998</v>
       </c>
       <c r="F34" s="47" t="n">
         <f aca="false">DAYS360(D34,E34)+1</f>
-        <v>5</v>
-      </c>
-      <c r="G34" s="92" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="G34" s="93" t="n">
+        <v>0.5</v>
       </c>
       <c r="H34" s="61"/>
       <c r="I34" s="65"/>
@@ -10934,13 +10938,13 @@
       <c r="BW34" s="51"/>
       <c r="BX34" s="51"/>
       <c r="BY34" s="51"/>
-      <c r="BZ34" s="48"/>
-      <c r="CA34" s="48"/>
-      <c r="CB34" s="48"/>
-      <c r="CC34" s="48"/>
-      <c r="CD34" s="48"/>
-      <c r="CE34" s="56"/>
-      <c r="CF34" s="51"/>
+      <c r="BZ34" s="89"/>
+      <c r="CA34" s="88"/>
+      <c r="CB34" s="89"/>
+      <c r="CC34" s="89"/>
+      <c r="CD34" s="88"/>
+      <c r="CE34" s="89"/>
+      <c r="CF34" s="89"/>
       <c r="CG34" s="51"/>
       <c r="CH34" s="51"/>
       <c r="CI34" s="51"/>
@@ -10971,7 +10975,7 @@
         <f aca="false">DAYS360(D35,E35)+1</f>
         <v>5</v>
       </c>
-      <c r="G35" s="92" t="n">
+      <c r="G35" s="93" t="n">
         <v>0</v>
       </c>
       <c r="H35" s="61"/>
@@ -11174,13 +11178,13 @@
         <v>43983</v>
       </c>
       <c r="E37" s="46" t="n">
-        <v>43994</v>
+        <v>43998</v>
       </c>
       <c r="F37" s="47" t="n">
         <f aca="false">DAYS360(D37,E37)+1</f>
-        <v>12</v>
-      </c>
-      <c r="G37" s="92" t="n">
+        <v>16</v>
+      </c>
+      <c r="G37" s="93" t="n">
         <v>0</v>
       </c>
       <c r="H37" s="66"/>
@@ -11290,7 +11294,7 @@
         <f aca="false">DAYS360(D38,E38)+1</f>
         <v>19</v>
       </c>
-      <c r="G38" s="92" t="n">
+      <c r="G38" s="93" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="61"/>
@@ -11400,7 +11404,7 @@
         <f aca="false">DAYS360(D39,E39)+1</f>
         <v>2</v>
       </c>
-      <c r="G39" s="92" t="n">
+      <c r="G39" s="93" t="n">
         <v>0</v>
       </c>
       <c r="H39" s="61"/>
@@ -11609,7 +11613,7 @@
         <f aca="false">DAYS360(D41,E41)+1</f>
         <v>1</v>
       </c>
-      <c r="G41" s="93" t="n">
+      <c r="G41" s="94" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="66"/>
@@ -11721,7 +11725,7 @@
         <f aca="false">DAYS360(D42,E42)+1</f>
         <v>3</v>
       </c>
-      <c r="G42" s="92" t="n">
+      <c r="G42" s="93" t="n">
         <v>0</v>
       </c>
       <c r="H42" s="61"/>
@@ -11831,7 +11835,7 @@
         <f aca="false">DAYS360(D43,E43)+1</f>
         <v>19</v>
       </c>
-      <c r="G43" s="92" t="n">
+      <c r="G43" s="93" t="n">
         <v>0</v>
       </c>
       <c r="H43" s="61"/>
@@ -11941,7 +11945,7 @@
         <f aca="false">DAYS360(D44,E44)+1</f>
         <v>5</v>
       </c>
-      <c r="G44" s="92" t="n">
+      <c r="G44" s="93" t="n">
         <v>0</v>
       </c>
       <c r="H44" s="61"/>
@@ -12051,7 +12055,7 @@
         <f aca="false">DAYS360(D45,E45)+1</f>
         <v>1</v>
       </c>
-      <c r="G45" s="93" t="n">
+      <c r="G45" s="94" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="61"/>

--- a/Diagrama de Gantt - Juego.xlsx
+++ b/Diagrama de Gantt - Juego.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="107">
   <si>
     <t xml:space="preserve">DIAGRAMA DE GANTT previsión.</t>
   </si>
@@ -390,6 +390,9 @@
       </rPr>
       <t xml:space="preserve">Solo hemos adaptado ligeramente los iniciales</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Subir a GITHub los ejecutables junto con el código. Solo GNU/Linux.</t>
   </si>
   <si>
     <r>
@@ -1100,7 +1103,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1477,6 +1480,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1562,10 +1569,10 @@
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C34:C35 G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -6930,10 +6937,10 @@
   <dimension ref="A1:CO111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C34:C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -10959,8 +10966,8 @@
       <c r="A35" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>83</v>
+      <c r="B35" s="94" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="45" t="s">
         <v>54</v>
@@ -10976,7 +10983,7 @@
         <v>5</v>
       </c>
       <c r="G35" s="93" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="H35" s="61"/>
       <c r="I35" s="65"/>
@@ -11279,7 +11286,7 @@
         <v>43135</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>54</v>
@@ -11389,7 +11396,7 @@
         <v>43163</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C39" s="45" t="s">
         <v>54</v>
@@ -11598,7 +11605,7 @@
         <v>89</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="73" t="s">
         <v>54</v>
@@ -11613,7 +11620,7 @@
         <f aca="false">DAYS360(D41,E41)+1</f>
         <v>1</v>
       </c>
-      <c r="G41" s="94" t="n">
+      <c r="G41" s="95" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="66"/>
@@ -12055,7 +12062,7 @@
         <f aca="false">DAYS360(D45,E45)+1</f>
         <v>1</v>
       </c>
-      <c r="G45" s="94" t="n">
+      <c r="G45" s="95" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="61"/>

--- a/Diagrama de Gantt - Juego.xlsx
+++ b/Diagrama de Gantt - Juego.xlsx
@@ -392,7 +392,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Subir a GITHub los ejecutables junto con el código. Solo GNU/Linux.</t>
+    <t xml:space="preserve">Subir a GITHub los ejecutables junto con el código. No Android nueva versión.</t>
   </si>
   <si>
     <r>
@@ -435,7 +435,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Finalmente mantenemos el motor gráfico en la versión funcional.</t>
+      <t xml:space="preserve">Finalmente mantenemos el motor gráfico en la versión funcional. 2018.4</t>
     </r>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <numFmt numFmtId="171" formatCode="0\ %"/>
     <numFmt numFmtId="172" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -692,8 +692,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,8 +835,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF81D41A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FFA2C4C9"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
@@ -842,6 +855,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFC9211E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFA2C4C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1103,7 +1128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1440,12 +1465,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="23" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="24" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="23" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1456,11 +1485,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="24" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="25" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="24" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="25" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1468,15 +1497,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="25" fillId="26" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="25" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="26" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="22" fillId="27" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1484,7 +1517,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="22" fillId="28" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="30" fillId="27" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1504,7 +1541,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFEDEDED"/>
+      <rgbColor rgb="FFFCE4D6"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1525,24 +1562,24 @@
       <rgbColor rgb="FFBDD7EE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFEDEDED"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFD0E0E3"/>
       <rgbColor rgb="FFEFEFEF"/>
-      <rgbColor rgb="FFD0E0E3"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FFA2C4C9"/>
       <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFF8CBAD"/>
       <rgbColor rgb="FF2F75B5"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFCE4D6"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFBF8F00"/>
       <rgbColor rgb="FFC65911"/>
       <rgbColor rgb="FF666666"/>
@@ -1569,7 +1606,7 @@
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="C34:C35 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -6936,8 +6973,8 @@
   </sheetPr>
   <dimension ref="A1:CO111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C34:C35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CH43" activeCellId="0" sqref="CH43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -8892,7 +8929,7 @@
       <c r="CN15" s="40"/>
       <c r="CO15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="16" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="44" t="n">
         <v>43101</v>
       </c>
@@ -8912,7 +8949,7 @@
         <f aca="false">DAYS360(D16,E16)+1</f>
         <v>2</v>
       </c>
-      <c r="G16" s="84" t="n">
+      <c r="G16" s="86" t="n">
         <v>1</v>
       </c>
       <c r="H16" s="66"/>
@@ -9002,7 +9039,7 @@
       <c r="CN16" s="57"/>
       <c r="CO16" s="59"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="17" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="60" t="s">
         <v>55</v>
       </c>
@@ -9022,7 +9059,7 @@
         <f aca="false">DAYS360(D17,E17)+1</f>
         <v>4</v>
       </c>
-      <c r="G17" s="84" t="n">
+      <c r="G17" s="86" t="n">
         <v>1</v>
       </c>
       <c r="H17" s="61"/>
@@ -9112,7 +9149,7 @@
       <c r="CN17" s="64"/>
       <c r="CO17" s="59"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="44" t="s">
         <v>57</v>
       </c>
@@ -9132,7 +9169,7 @@
         <f aca="false">DAYS360(D18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="84" t="n">
+      <c r="G18" s="86" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="61"/>
@@ -9222,7 +9259,7 @@
       <c r="CN18" s="64"/>
       <c r="CO18" s="59"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="19" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="44" t="s">
         <v>59</v>
       </c>
@@ -9242,7 +9279,7 @@
         <f aca="false">DAYS360(D19,E19)+1</f>
         <v>5</v>
       </c>
-      <c r="G19" s="84" t="n">
+      <c r="G19" s="86" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="61"/>
@@ -9332,7 +9369,7 @@
       <c r="CN19" s="64"/>
       <c r="CO19" s="59"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="20" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="44" t="n">
         <v>43952</v>
       </c>
@@ -9352,7 +9389,7 @@
         <f aca="false">DAYS360(D20,E20)+1</f>
         <v>32</v>
       </c>
-      <c r="G20" s="84" t="n">
+      <c r="G20" s="86" t="n">
         <v>1</v>
       </c>
       <c r="H20" s="61"/>
@@ -9442,7 +9479,7 @@
       <c r="CN20" s="57"/>
       <c r="CO20" s="59"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="21" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A21" s="44" t="s">
         <v>62</v>
       </c>
@@ -9462,7 +9499,7 @@
         <f aca="false">DAYS360(D21,E21)+1</f>
         <v>90</v>
       </c>
-      <c r="G21" s="84" t="n">
+      <c r="G21" s="86" t="n">
         <v>1</v>
       </c>
       <c r="H21" s="61"/>
@@ -9552,7 +9589,7 @@
       <c r="CN21" s="57"/>
       <c r="CO21" s="59"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="22" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="60" t="s">
         <v>64</v>
       </c>
@@ -9562,18 +9599,18 @@
       <c r="C22" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="86" t="n">
+      <c r="D22" s="87" t="n">
         <v>43962</v>
       </c>
-      <c r="E22" s="86" t="n">
+      <c r="E22" s="87" t="n">
         <v>43980</v>
       </c>
-      <c r="F22" s="87" t="n">
+      <c r="F22" s="88" t="n">
         <f aca="false">DAYS360(D22,E22)+1</f>
         <v>19</v>
       </c>
-      <c r="G22" s="84" t="n">
-        <v>0.8</v>
+      <c r="G22" s="86" t="n">
+        <v>0.84</v>
       </c>
       <c r="H22" s="61"/>
       <c r="I22" s="65"/>
@@ -9625,21 +9662,21 @@
       <c r="BC22" s="51"/>
       <c r="BD22" s="51"/>
       <c r="BE22" s="51"/>
-      <c r="BF22" s="88"/>
-      <c r="BG22" s="89"/>
-      <c r="BH22" s="89"/>
-      <c r="BI22" s="88"/>
-      <c r="BJ22" s="89"/>
-      <c r="BK22" s="89"/>
-      <c r="BL22" s="88"/>
-      <c r="BM22" s="89"/>
-      <c r="BN22" s="89"/>
-      <c r="BO22" s="88"/>
-      <c r="BP22" s="89"/>
-      <c r="BQ22" s="89"/>
-      <c r="BR22" s="88"/>
-      <c r="BS22" s="89"/>
-      <c r="BT22" s="89"/>
+      <c r="BF22" s="89"/>
+      <c r="BG22" s="90"/>
+      <c r="BH22" s="90"/>
+      <c r="BI22" s="89"/>
+      <c r="BJ22" s="90"/>
+      <c r="BK22" s="90"/>
+      <c r="BL22" s="89"/>
+      <c r="BM22" s="90"/>
+      <c r="BN22" s="90"/>
+      <c r="BO22" s="89"/>
+      <c r="BP22" s="90"/>
+      <c r="BQ22" s="90"/>
+      <c r="BR22" s="89"/>
+      <c r="BS22" s="90"/>
+      <c r="BT22" s="90"/>
       <c r="BU22" s="56"/>
       <c r="BV22" s="51"/>
       <c r="BW22" s="51"/>
@@ -9672,18 +9709,18 @@
       <c r="C23" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="86" t="n">
+      <c r="D23" s="87" t="n">
         <v>43972</v>
       </c>
-      <c r="E23" s="86" t="n">
+      <c r="E23" s="87" t="n">
         <v>43980</v>
       </c>
-      <c r="F23" s="87" t="n">
+      <c r="F23" s="88" t="n">
         <f aca="false">DAYS360(D23,E23)+1</f>
         <v>9</v>
       </c>
-      <c r="G23" s="84" t="n">
-        <v>0.8</v>
+      <c r="G23" s="86" t="n">
+        <v>0.85</v>
       </c>
       <c r="H23" s="67"/>
       <c r="I23" s="68"/>
@@ -9743,13 +9780,13 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
       <c r="BM23" s="51"/>
-      <c r="BN23" s="89"/>
-      <c r="BO23" s="88"/>
-      <c r="BP23" s="89"/>
-      <c r="BQ23" s="89"/>
-      <c r="BR23" s="88"/>
-      <c r="BS23" s="89"/>
-      <c r="BT23" s="89"/>
+      <c r="BN23" s="90"/>
+      <c r="BO23" s="89"/>
+      <c r="BP23" s="90"/>
+      <c r="BQ23" s="90"/>
+      <c r="BR23" s="89"/>
+      <c r="BS23" s="90"/>
+      <c r="BT23" s="90"/>
       <c r="BU23" s="56"/>
       <c r="BV23" s="51"/>
       <c r="BW23" s="51"/>
@@ -9772,7 +9809,7 @@
       <c r="CN23" s="64"/>
       <c r="CO23" s="59"/>
     </row>
-    <row r="24" s="77" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="24" s="77" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="72" t="n">
         <v>44075</v>
       </c>
@@ -9782,17 +9819,17 @@
       <c r="C24" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="90" t="n">
+      <c r="D24" s="91" t="n">
         <v>43983</v>
       </c>
-      <c r="E24" s="90" t="n">
+      <c r="E24" s="91" t="n">
         <v>43983</v>
       </c>
       <c r="F24" s="47" t="n">
         <f aca="false">DAYS360(D24,E24)+1</f>
         <v>1</v>
       </c>
-      <c r="G24" s="91" t="n">
+      <c r="G24" s="92" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="61"/>
@@ -9860,7 +9897,7 @@
       <c r="BR24" s="63"/>
       <c r="BS24" s="63"/>
       <c r="BT24" s="63"/>
-      <c r="BU24" s="92" t="s">
+      <c r="BU24" s="93" t="s">
         <v>68</v>
       </c>
       <c r="BV24" s="51"/>
@@ -9894,17 +9931,17 @@
       <c r="C25" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="86" t="n">
+      <c r="D25" s="87" t="n">
         <v>43983</v>
       </c>
-      <c r="E25" s="86" t="n">
+      <c r="E25" s="87" t="n">
         <v>43985</v>
       </c>
       <c r="F25" s="47" t="n">
         <f aca="false">DAYS360(D25,E25)+1</f>
         <v>3</v>
       </c>
-      <c r="G25" s="84" t="n">
+      <c r="G25" s="94" t="n">
         <v>0.2</v>
       </c>
       <c r="H25" s="61"/>
@@ -9972,9 +10009,9 @@
       <c r="BR25" s="63"/>
       <c r="BS25" s="63"/>
       <c r="BT25" s="63"/>
-      <c r="BU25" s="88"/>
-      <c r="BV25" s="89"/>
-      <c r="BW25" s="89"/>
+      <c r="BU25" s="89"/>
+      <c r="BV25" s="90"/>
+      <c r="BW25" s="90"/>
       <c r="BX25" s="51"/>
       <c r="BY25" s="51"/>
       <c r="BZ25" s="64"/>
@@ -9994,7 +10031,7 @@
       <c r="CN25" s="64"/>
       <c r="CO25" s="59"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="26" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="44" t="s">
         <v>71</v>
       </c>
@@ -10004,17 +10041,17 @@
       <c r="C26" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="86" t="n">
+      <c r="D26" s="87" t="n">
         <v>43983</v>
       </c>
-      <c r="E26" s="86" t="n">
+      <c r="E26" s="87" t="n">
         <v>43985</v>
       </c>
       <c r="F26" s="47" t="n">
         <f aca="false">DAYS360(D26,E26)+1</f>
         <v>3</v>
       </c>
-      <c r="G26" s="84" t="n">
+      <c r="G26" s="94" t="n">
         <v>0.2</v>
       </c>
       <c r="H26" s="67"/>
@@ -10082,9 +10119,9 @@
       <c r="BR26" s="63"/>
       <c r="BS26" s="63"/>
       <c r="BT26" s="63"/>
-      <c r="BU26" s="88"/>
-      <c r="BV26" s="89"/>
-      <c r="BW26" s="89"/>
+      <c r="BU26" s="89"/>
+      <c r="BV26" s="90"/>
+      <c r="BW26" s="90"/>
       <c r="BX26" s="69"/>
       <c r="BY26" s="69"/>
       <c r="BZ26" s="71"/>
@@ -10223,7 +10260,7 @@
         <f aca="false">DAYS360(D28,E28)+1</f>
         <v>7</v>
       </c>
-      <c r="G28" s="93" t="n">
+      <c r="G28" s="94" t="n">
         <v>1</v>
       </c>
       <c r="H28" s="66"/>
@@ -10333,7 +10370,7 @@
         <f aca="false">DAYS360(D29,E29)+1</f>
         <v>5</v>
       </c>
-      <c r="G29" s="93" t="n">
+      <c r="G29" s="94" t="n">
         <v>1</v>
       </c>
       <c r="H29" s="61"/>
@@ -10443,7 +10480,7 @@
         <f aca="false">DAYS360(D30,E30)+1</f>
         <v>3</v>
       </c>
-      <c r="G30" s="93" t="n">
+      <c r="G30" s="94" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="61"/>
@@ -10652,7 +10689,7 @@
         <f aca="false">DAYS360(D32,E32)+1</f>
         <v>5</v>
       </c>
-      <c r="G32" s="93" t="n">
+      <c r="G32" s="94" t="n">
         <v>1</v>
       </c>
       <c r="H32" s="66"/>
@@ -10762,7 +10799,7 @@
         <f aca="false">DAYS360(D33,E33)+1</f>
         <v>5</v>
       </c>
-      <c r="G33" s="93" t="n">
+      <c r="G33" s="94" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="61"/>
@@ -10862,17 +10899,17 @@
       <c r="C34" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="86" t="n">
+      <c r="D34" s="87" t="n">
         <v>43990</v>
       </c>
-      <c r="E34" s="86" t="n">
+      <c r="E34" s="87" t="n">
         <v>43998</v>
       </c>
       <c r="F34" s="47" t="n">
         <f aca="false">DAYS360(D34,E34)+1</f>
         <v>9</v>
       </c>
-      <c r="G34" s="93" t="n">
+      <c r="G34" s="95" t="n">
         <v>0.5</v>
       </c>
       <c r="H34" s="61"/>
@@ -10945,13 +10982,13 @@
       <c r="BW34" s="51"/>
       <c r="BX34" s="51"/>
       <c r="BY34" s="51"/>
-      <c r="BZ34" s="89"/>
-      <c r="CA34" s="88"/>
-      <c r="CB34" s="89"/>
-      <c r="CC34" s="89"/>
-      <c r="CD34" s="88"/>
-      <c r="CE34" s="89"/>
-      <c r="CF34" s="89"/>
+      <c r="BZ34" s="90"/>
+      <c r="CA34" s="89"/>
+      <c r="CB34" s="90"/>
+      <c r="CC34" s="90"/>
+      <c r="CD34" s="89"/>
+      <c r="CE34" s="90"/>
+      <c r="CF34" s="90"/>
       <c r="CG34" s="51"/>
       <c r="CH34" s="51"/>
       <c r="CI34" s="51"/>
@@ -10962,11 +10999,11 @@
       <c r="CN34" s="64"/>
       <c r="CO34" s="59"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="35" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="96" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="45" t="s">
@@ -10982,8 +11019,8 @@
         <f aca="false">DAYS360(D35,E35)+1</f>
         <v>5</v>
       </c>
-      <c r="G35" s="93" t="n">
-        <v>0.33</v>
+      <c r="G35" s="97" t="n">
+        <v>0.66</v>
       </c>
       <c r="H35" s="61"/>
       <c r="I35" s="65"/>
@@ -11055,11 +11092,11 @@
       <c r="BW35" s="51"/>
       <c r="BX35" s="51"/>
       <c r="BY35" s="51"/>
-      <c r="BZ35" s="48"/>
-      <c r="CA35" s="48"/>
-      <c r="CB35" s="48"/>
-      <c r="CC35" s="48"/>
-      <c r="CD35" s="48"/>
+      <c r="BZ35" s="85"/>
+      <c r="CA35" s="85"/>
+      <c r="CB35" s="85"/>
+      <c r="CC35" s="85"/>
+      <c r="CD35" s="85"/>
       <c r="CE35" s="56"/>
       <c r="CF35" s="51"/>
       <c r="CG35" s="51"/>
@@ -11171,7 +11208,7 @@
       <c r="CN36" s="40"/>
       <c r="CO36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="37" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="44" t="n">
         <v>43104</v>
       </c>
@@ -11191,8 +11228,8 @@
         <f aca="false">DAYS360(D37,E37)+1</f>
         <v>16</v>
       </c>
-      <c r="G37" s="93" t="n">
-        <v>0</v>
+      <c r="G37" s="98" t="n">
+        <v>1</v>
       </c>
       <c r="H37" s="66"/>
       <c r="I37" s="49"/>
@@ -11259,16 +11296,16 @@
       <c r="BR37" s="55"/>
       <c r="BS37" s="55"/>
       <c r="BT37" s="55"/>
-      <c r="BU37" s="78"/>
-      <c r="BV37" s="48"/>
-      <c r="BW37" s="48"/>
-      <c r="BX37" s="48"/>
-      <c r="BY37" s="48"/>
-      <c r="BZ37" s="48"/>
-      <c r="CA37" s="48"/>
-      <c r="CB37" s="48"/>
-      <c r="CC37" s="48"/>
-      <c r="CD37" s="48"/>
+      <c r="BU37" s="85"/>
+      <c r="BV37" s="85"/>
+      <c r="BW37" s="85"/>
+      <c r="BX37" s="85"/>
+      <c r="BY37" s="85"/>
+      <c r="BZ37" s="85"/>
+      <c r="CA37" s="85"/>
+      <c r="CB37" s="85"/>
+      <c r="CC37" s="85"/>
+      <c r="CD37" s="85"/>
       <c r="CE37" s="56"/>
       <c r="CF37" s="51"/>
       <c r="CG37" s="51"/>
@@ -11281,7 +11318,7 @@
       <c r="CN37" s="64"/>
       <c r="CO37" s="59"/>
     </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="38" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="44" t="n">
         <v>43135</v>
       </c>
@@ -11301,8 +11338,8 @@
         <f aca="false">DAYS360(D38,E38)+1</f>
         <v>19</v>
       </c>
-      <c r="G38" s="93" t="n">
-        <v>0</v>
+      <c r="G38" s="94" t="n">
+        <v>0.2</v>
       </c>
       <c r="H38" s="61"/>
       <c r="I38" s="65"/>
@@ -11369,21 +11406,21 @@
       <c r="BR38" s="63"/>
       <c r="BS38" s="63"/>
       <c r="BT38" s="63"/>
-      <c r="BU38" s="78"/>
-      <c r="BV38" s="48"/>
-      <c r="BW38" s="48"/>
-      <c r="BX38" s="48"/>
-      <c r="BY38" s="48"/>
-      <c r="BZ38" s="48"/>
-      <c r="CA38" s="48"/>
-      <c r="CB38" s="48"/>
-      <c r="CC38" s="48"/>
-      <c r="CD38" s="48"/>
-      <c r="CE38" s="78"/>
-      <c r="CF38" s="48"/>
-      <c r="CG38" s="48"/>
-      <c r="CH38" s="48"/>
-      <c r="CI38" s="48"/>
+      <c r="BU38" s="90"/>
+      <c r="BV38" s="89"/>
+      <c r="BW38" s="90"/>
+      <c r="BX38" s="90"/>
+      <c r="BY38" s="89"/>
+      <c r="BZ38" s="90"/>
+      <c r="CA38" s="90"/>
+      <c r="CB38" s="90"/>
+      <c r="CC38" s="89"/>
+      <c r="CD38" s="90"/>
+      <c r="CE38" s="90"/>
+      <c r="CF38" s="89"/>
+      <c r="CG38" s="90"/>
+      <c r="CH38" s="90"/>
+      <c r="CI38" s="90"/>
       <c r="CJ38" s="58"/>
       <c r="CK38" s="64"/>
       <c r="CL38" s="64"/>
@@ -11391,7 +11428,7 @@
       <c r="CN38" s="64"/>
       <c r="CO38" s="59"/>
     </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="39" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A39" s="44" t="n">
         <v>43163</v>
       </c>
@@ -11411,8 +11448,8 @@
         <f aca="false">DAYS360(D39,E39)+1</f>
         <v>2</v>
       </c>
-      <c r="G39" s="93" t="n">
-        <v>0</v>
+      <c r="G39" s="86" t="n">
+        <v>0.9</v>
       </c>
       <c r="H39" s="61"/>
       <c r="I39" s="65"/>
@@ -11492,8 +11529,8 @@
       <c r="CE39" s="56"/>
       <c r="CF39" s="51"/>
       <c r="CG39" s="51"/>
-      <c r="CH39" s="48"/>
-      <c r="CI39" s="48"/>
+      <c r="CH39" s="90"/>
+      <c r="CI39" s="90"/>
       <c r="CJ39" s="58"/>
       <c r="CK39" s="64"/>
       <c r="CL39" s="64"/>
@@ -11600,7 +11637,7 @@
       <c r="CN40" s="40"/>
       <c r="CO40" s="22"/>
     </row>
-    <row r="41" s="77" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="41" s="77" customFormat="true" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="72" t="s">
         <v>89</v>
       </c>
@@ -11620,7 +11657,7 @@
         <f aca="false">DAYS360(D41,E41)+1</f>
         <v>1</v>
       </c>
-      <c r="G41" s="95" t="n">
+      <c r="G41" s="92" t="n">
         <v>0</v>
       </c>
       <c r="H41" s="66"/>
@@ -11698,7 +11735,7 @@
       <c r="CB41" s="57"/>
       <c r="CC41" s="57"/>
       <c r="CD41" s="57"/>
-      <c r="CE41" s="75" t="s">
+      <c r="CE41" s="93" t="s">
         <v>68</v>
       </c>
       <c r="CF41" s="51"/>
@@ -11712,7 +11749,7 @@
       <c r="CN41" s="64"/>
       <c r="CO41" s="76"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="42" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="44" t="s">
         <v>91</v>
       </c>
@@ -11732,8 +11769,8 @@
         <f aca="false">DAYS360(D42,E42)+1</f>
         <v>3</v>
       </c>
-      <c r="G42" s="93" t="n">
-        <v>0</v>
+      <c r="G42" s="94" t="n">
+        <v>0.9</v>
       </c>
       <c r="H42" s="61"/>
       <c r="I42" s="65"/>
@@ -11812,9 +11849,9 @@
       <c r="CD42" s="64"/>
       <c r="CE42" s="56"/>
       <c r="CF42" s="51"/>
-      <c r="CG42" s="48"/>
-      <c r="CH42" s="48"/>
-      <c r="CI42" s="48"/>
+      <c r="CG42" s="85"/>
+      <c r="CH42" s="85"/>
+      <c r="CI42" s="85"/>
       <c r="CJ42" s="58"/>
       <c r="CK42" s="64"/>
       <c r="CL42" s="64"/>
@@ -11822,7 +11859,7 @@
       <c r="CN42" s="64"/>
       <c r="CO42" s="59"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="43" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="44" t="n">
         <v>43895</v>
       </c>
@@ -11842,8 +11879,8 @@
         <f aca="false">DAYS360(D43,E43)+1</f>
         <v>19</v>
       </c>
-      <c r="G43" s="93" t="n">
-        <v>0</v>
+      <c r="G43" s="94" t="n">
+        <v>1</v>
       </c>
       <c r="H43" s="61"/>
       <c r="I43" s="65"/>
@@ -11910,21 +11947,21 @@
       <c r="BR43" s="63"/>
       <c r="BS43" s="63"/>
       <c r="BT43" s="63"/>
-      <c r="BU43" s="78"/>
-      <c r="BV43" s="48"/>
-      <c r="BW43" s="48"/>
-      <c r="BX43" s="48"/>
-      <c r="BY43" s="48"/>
-      <c r="BZ43" s="48"/>
-      <c r="CA43" s="48"/>
-      <c r="CB43" s="48"/>
-      <c r="CC43" s="48"/>
-      <c r="CD43" s="48"/>
-      <c r="CE43" s="78"/>
-      <c r="CF43" s="48"/>
-      <c r="CG43" s="48"/>
-      <c r="CH43" s="48"/>
-      <c r="CI43" s="48"/>
+      <c r="BU43" s="85"/>
+      <c r="BV43" s="85"/>
+      <c r="BW43" s="85"/>
+      <c r="BX43" s="85"/>
+      <c r="BY43" s="85"/>
+      <c r="BZ43" s="85"/>
+      <c r="CA43" s="85"/>
+      <c r="CB43" s="85"/>
+      <c r="CC43" s="85"/>
+      <c r="CD43" s="85"/>
+      <c r="CE43" s="85"/>
+      <c r="CF43" s="85"/>
+      <c r="CG43" s="85"/>
+      <c r="CH43" s="85"/>
+      <c r="CI43" s="85"/>
       <c r="CJ43" s="58"/>
       <c r="CK43" s="64"/>
       <c r="CL43" s="64"/>
@@ -11932,7 +11969,7 @@
       <c r="CN43" s="64"/>
       <c r="CO43" s="59"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="44" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="44" t="s">
         <v>94</v>
       </c>
@@ -11952,8 +11989,8 @@
         <f aca="false">DAYS360(D44,E44)+1</f>
         <v>5</v>
       </c>
-      <c r="G44" s="93" t="n">
-        <v>0</v>
+      <c r="G44" s="94" t="n">
+        <v>1</v>
       </c>
       <c r="H44" s="61"/>
       <c r="I44" s="65"/>
@@ -12030,11 +12067,11 @@
       <c r="CB44" s="64"/>
       <c r="CC44" s="64"/>
       <c r="CD44" s="64"/>
-      <c r="CE44" s="78"/>
-      <c r="CF44" s="48"/>
-      <c r="CG44" s="48"/>
-      <c r="CH44" s="48"/>
-      <c r="CI44" s="48"/>
+      <c r="CE44" s="85"/>
+      <c r="CF44" s="85"/>
+      <c r="CG44" s="85"/>
+      <c r="CH44" s="85"/>
+      <c r="CI44" s="85"/>
       <c r="CJ44" s="58"/>
       <c r="CK44" s="64"/>
       <c r="CL44" s="64"/>
@@ -12062,7 +12099,7 @@
         <f aca="false">DAYS360(D45,E45)+1</f>
         <v>1</v>
       </c>
-      <c r="G45" s="95" t="n">
+      <c r="G45" s="94" t="n">
         <v>0</v>
       </c>
       <c r="H45" s="61"/>
@@ -12398,7 +12435,7 @@
     <mergeCell ref="CE5:CI5"/>
     <mergeCell ref="CJ5:CN5"/>
   </mergeCells>
-  <conditionalFormatting sqref="G23:G25 G36:G37 G39 G28:G34">
+  <conditionalFormatting sqref="G36:G37 G28:G33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12408,7 +12445,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G25 G36:G37 G39 G28:G34">
+  <conditionalFormatting sqref="G36:G37 G28:G33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12418,7 +12455,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12428,7 +12465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
+  <conditionalFormatting sqref="G9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12438,7 +12475,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12448,7 +12485,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12458,7 +12495,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12468,7 +12505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G11">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12478,7 +12515,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12488,7 +12525,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G12">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12498,7 +12535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="G13">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12508,7 +12545,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="G13">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12518,7 +12555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12528,7 +12565,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
+  <conditionalFormatting sqref="G14">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12538,7 +12575,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G38">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12548,7 +12585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
+  <conditionalFormatting sqref="G38">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12558,7 +12595,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G40">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12568,7 +12605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G40">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12578,7 +12615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12588,7 +12625,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12598,7 +12635,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G41">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12608,7 +12645,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
+  <conditionalFormatting sqref="G41">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12618,7 +12655,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G42">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12628,7 +12665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
+  <conditionalFormatting sqref="G42">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12638,7 +12675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12648,7 +12685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
+  <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12658,7 +12695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12668,7 +12705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="G25">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12678,7 +12715,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45 G40:G41">
+  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12688,7 +12725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45 G40:G41">
+  <conditionalFormatting sqref="G26">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12698,7 +12735,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12708,7 +12745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G16:G18">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12718,7 +12755,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12728,7 +12765,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12738,7 +12775,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12748,7 +12785,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="G34">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12758,7 +12795,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G21">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12768,7 +12805,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35">
+  <conditionalFormatting sqref="G21">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12778,7 +12815,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12788,7 +12825,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G20:G21">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12798,7 +12835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12808,8 +12845,108 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
+  <conditionalFormatting sqref="G23">
     <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G45">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:G45">
+    <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>

--- a/Diagrama de Gantt - Juego.xlsx
+++ b/Diagrama de Gantt - Juego.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Previsión" sheetId="1" state="visible" r:id="rId2"/>
@@ -1605,11 +1605,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -2907,10 +2907,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="46" t="n">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="E10" s="46" t="n">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="F10" s="47" t="n">
         <f aca="false">DAYS360(D10,E10)+1</f>
@@ -3014,10 +3014,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="46" t="n">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="E11" s="46" t="n">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F11" s="47" t="n">
         <f aca="false">DAYS360(D11,E11)+1</f>
@@ -3121,10 +3121,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="46" t="n">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="E12" s="46" t="n">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F12" s="47" t="n">
         <f aca="false">DAYS360(D12,E12)+1</f>
@@ -3228,10 +3228,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="46" t="n">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="E13" s="46" t="n">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="F13" s="47" t="n">
         <f aca="false">DAYS360(D13,E13)+1</f>
@@ -3335,10 +3335,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E14" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="F14" s="47" t="n">
         <f aca="false">DAYS360(D14,E14)+1</f>
@@ -3540,10 +3540,10 @@
         <v>54</v>
       </c>
       <c r="D16" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E16" s="46" t="n">
-        <v>43872</v>
+        <v>43901</v>
       </c>
       <c r="F16" s="47" t="n">
         <f aca="false">DAYS360(D16,E16)+1</f>
@@ -3647,10 +3647,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E17" s="46" t="n">
-        <v>43874</v>
+        <v>43903</v>
       </c>
       <c r="F17" s="47" t="n">
         <f aca="false">DAYS360(D17,E17)+1</f>
@@ -3754,10 +3754,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E18" s="46" t="n">
-        <v>43881</v>
+        <v>43910</v>
       </c>
       <c r="F18" s="47" t="n">
         <f aca="false">DAYS360(D18,E18)+1</f>
@@ -3861,10 +3861,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E19" s="46" t="n">
-        <v>43881</v>
+        <v>43910</v>
       </c>
       <c r="F19" s="47" t="n">
         <f aca="false">DAYS360(D19,E19)+1</f>
@@ -3968,14 +3968,14 @@
         <v>54</v>
       </c>
       <c r="D20" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E20" s="46" t="n">
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="F20" s="47" t="n">
         <f aca="false">DAYS360(D20,E20)+1</f>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G20" s="61"/>
       <c r="H20" s="65"/>
@@ -4075,14 +4075,14 @@
         <v>54</v>
       </c>
       <c r="D21" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E21" s="46" t="n">
         <v>43966</v>
       </c>
       <c r="F21" s="47" t="n">
         <f aca="false">DAYS360(D21,E21)+1</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G21" s="61"/>
       <c r="H21" s="65"/>
@@ -6973,11 +6973,11 @@
   </sheetPr>
   <dimension ref="A1:CO111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CH43" activeCellId="0" sqref="CH43"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.09"/>
@@ -8170,7 +8170,7 @@
       <c r="CN8" s="40"/>
       <c r="CO8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="9" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A9" s="44" t="s">
         <v>40</v>
       </c>
@@ -8291,10 +8291,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="46" t="n">
-        <v>43864</v>
+        <v>43893</v>
       </c>
       <c r="E10" s="46" t="n">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="F10" s="47" t="n">
         <f aca="false">DAYS360(D10,E10)+1</f>
@@ -8390,7 +8390,7 @@
       <c r="CN10" s="64"/>
       <c r="CO10" s="59"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="11" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A11" s="44" t="s">
         <v>44</v>
       </c>
@@ -8401,10 +8401,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="46" t="n">
-        <v>43866</v>
+        <v>43895</v>
       </c>
       <c r="E11" s="46" t="n">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F11" s="47" t="n">
         <f aca="false">DAYS360(D11,E11)+1</f>
@@ -8500,7 +8500,7 @@
       <c r="CN11" s="64"/>
       <c r="CO11" s="59"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="12" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A12" s="44" t="s">
         <v>46</v>
       </c>
@@ -8511,10 +8511,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="46" t="n">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="E12" s="46" t="n">
-        <v>43867</v>
+        <v>43896</v>
       </c>
       <c r="F12" s="47" t="n">
         <f aca="false">DAYS360(D12,E12)+1</f>
@@ -8621,10 +8621,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="46" t="n">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="E13" s="46" t="n">
-        <v>43870</v>
+        <v>43899</v>
       </c>
       <c r="F13" s="47" t="n">
         <f aca="false">DAYS360(D13,E13)+1</f>
@@ -8720,7 +8720,7 @@
       <c r="CN13" s="64"/>
       <c r="CO13" s="59"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="14" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A14" s="60" t="s">
         <v>50</v>
       </c>
@@ -8731,10 +8731,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E14" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="F14" s="47" t="n">
         <f aca="false">DAYS360(D14,E14)+1</f>
@@ -8940,10 +8940,10 @@
         <v>54</v>
       </c>
       <c r="D16" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E16" s="46" t="n">
-        <v>43872</v>
+        <v>43901</v>
       </c>
       <c r="F16" s="47" t="n">
         <f aca="false">DAYS360(D16,E16)+1</f>
@@ -9050,10 +9050,10 @@
         <v>54</v>
       </c>
       <c r="D17" s="46" t="n">
-        <v>43871</v>
+        <v>43900</v>
       </c>
       <c r="E17" s="46" t="n">
-        <v>43874</v>
+        <v>43903</v>
       </c>
       <c r="F17" s="47" t="n">
         <f aca="false">DAYS360(D17,E17)+1</f>
@@ -9160,10 +9160,10 @@
         <v>54</v>
       </c>
       <c r="D18" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E18" s="46" t="n">
-        <v>43881</v>
+        <v>43910</v>
       </c>
       <c r="F18" s="47" t="n">
         <f aca="false">DAYS360(D18,E18)+1</f>
@@ -9270,10 +9270,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E19" s="46" t="n">
-        <v>43881</v>
+        <v>43910</v>
       </c>
       <c r="F19" s="47" t="n">
         <f aca="false">DAYS360(D19,E19)+1</f>
@@ -9380,14 +9380,14 @@
         <v>54</v>
       </c>
       <c r="D20" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E20" s="46" t="n">
-        <v>43907</v>
+        <v>43914</v>
       </c>
       <c r="F20" s="47" t="n">
         <f aca="false">DAYS360(D20,E20)+1</f>
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G20" s="86" t="n">
         <v>1</v>
@@ -9490,14 +9490,14 @@
         <v>54</v>
       </c>
       <c r="D21" s="46" t="n">
-        <v>43877</v>
+        <v>43906</v>
       </c>
       <c r="E21" s="46" t="n">
         <v>43966</v>
       </c>
       <c r="F21" s="47" t="n">
         <f aca="false">DAYS360(D21,E21)+1</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G21" s="86" t="n">
         <v>1</v>
@@ -9699,7 +9699,7 @@
       <c r="CN22" s="64"/>
       <c r="CO22" s="59"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="23" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="44" t="n">
         <v>44044</v>
       </c>

--- a/Diagrama de Gantt - Juego.xlsx
+++ b/Diagrama de Gantt - Juego.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Previsión" sheetId="1" state="visible" r:id="rId2"/>
@@ -1605,8 +1605,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -6973,7 +6973,7 @@
   </sheetPr>
   <dimension ref="A1:CO111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
